--- a/docs/data/connectivity/online_population.xlsx
+++ b/docs/data/connectivity/online_population.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Sync/School/School_2021/semester_2/FIT3179_data_vis/ASS_2/docs/data/connectivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4488C8-DB08-4F44-8CF2-A0F26E19DA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F3AC7-6D89-6145-AEDF-897BA5CD73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11720" yWindow="1400" windowWidth="28040" windowHeight="17440" xr2:uid="{54830617-DD9E-7146-9C3C-41B28EB01E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Percent Connected</t>
   </si>
 </sst>
 </file>
@@ -97,12 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,16 +427,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60C9795-9CCA-7846-B4C6-03FD626CBC7D}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="B2:G18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,23 +445,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -458,23 +460,15 @@
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.85099999999999998</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>0.52200000000000002</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.89400000000000002</v>
+      <c r="D2" s="5">
+        <f>C2*100</f>
+        <v>52.2</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -486,23 +480,15 @@
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.84799999999999998</v>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.27</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.88200000000000001</v>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D66" si="0">C3*100</f>
+        <v>51.300000000000004</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -514,23 +500,15 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.84599999999999997</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.874</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.85499999999999998</v>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>49.3</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -544,23 +522,15 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.83</v>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>0.45800000000000002</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.151</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.82799999999999996</v>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>45.800000000000004</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4"/>
@@ -574,23 +544,15 @@
       <c r="A6">
         <v>2012</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.79</v>
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.126</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.82</v>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>42.3</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4"/>
@@ -604,23 +566,15 @@
       <c r="A7">
         <v>2011</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.79500000000000004</v>
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>0.38300000000000001</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.81200000000000006</v>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
@@ -634,23 +588,15 @@
       <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.76</v>
+      <c r="B8" t="s">
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.80500000000000005</v>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>34.300000000000004</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
@@ -664,23 +610,15 @@
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.74299999999999999</v>
+      <c r="B9" t="s">
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.79700000000000004</v>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>28.9</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
@@ -696,23 +634,15 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.71699999999999997</v>
+      <c r="B10" t="s">
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>0.22600000000000001</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.72</v>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>22.6</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -728,23 +658,15 @@
       <c r="A11">
         <v>2007</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.69499999999999995</v>
+      <c r="B11" t="s">
+        <v>1</v>
       </c>
       <c r="C11" s="3">
         <v>0.16</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.69799999999999995</v>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -760,23 +682,15 @@
       <c r="A12">
         <v>2006</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.66</v>
+      <c r="B12" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="3">
         <v>0.105</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.69</v>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -792,23 +706,15 @@
       <c r="A13">
         <v>2005</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.63</v>
+      <c r="B13" t="s">
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.627</v>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="4"/>
@@ -824,23 +730,15 @@
       <c r="A14">
         <v>2004</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.60799999999999998</v>
+      <c r="B14" t="s">
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.61799999999999999</v>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -856,23 +754,15 @@
       <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.57999999999999996</v>
+      <c r="B15" t="s">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.61</v>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -888,23 +778,15 @@
       <c r="A16">
         <v>2002</v>
       </c>
-      <c r="B16" s="3">
-        <v>0.55300000000000005</v>
+      <c r="B16" t="s">
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.59099999999999997</v>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="4"/>
@@ -920,23 +802,15 @@
       <c r="A17">
         <v>2001</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.52700000000000002</v>
+      <c r="B17" t="s">
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.53200000000000003</v>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
@@ -952,23 +826,15 @@
       <c r="A18">
         <v>2000</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.46800000000000003</v>
+      <c r="B18" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.47399999999999998</v>
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
@@ -980,10 +846,20 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>85.1</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -997,7 +873,20 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
+        <v>84.8</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="L20" s="2"/>
@@ -1008,7 +897,20 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>84.6</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
@@ -1017,7 +919,20 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
       <c r="L22" s="2"/>
       <c r="M22" s="4"/>
       <c r="N22" s="2"/>
@@ -1026,7 +941,20 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
@@ -1035,7 +963,20 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2011</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
+        <v>79.5</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
       <c r="N24" s="2"/>
@@ -1044,7 +985,20 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="3"/>
       <c r="N25" s="2"/>
@@ -1053,6 +1007,1176 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
     </row>
+    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2009</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2008</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2007</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2006</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
+        <v>57.999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2002</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
+        <v>55.300000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2001</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
+        <v>46.800000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2016</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.874</v>
+      </c>
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2013</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2012</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2011</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
+        <v>69.699999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2008</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2007</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>68.899999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2005</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2015</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2014</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2013</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2012</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2011</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="0"/>
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2010</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2007</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2006</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2005</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2004</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2003</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2002</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" ref="D67:D103" si="1">C67*100</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2016</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="1"/>
+        <v>93.100000000000009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2015</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="1"/>
+        <v>92.800000000000011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2014</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="1"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2013</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="1"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2012</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="1"/>
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2011</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="1"/>
+        <v>92.800000000000011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2010</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2009</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2008</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2007</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2006</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="1"/>
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2005</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="1"/>
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2004</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="1"/>
+        <v>83.899999999999991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2003</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="1"/>
+        <v>79.100000000000009</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2002</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="1"/>
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2001</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" si="1"/>
+        <v>51.800000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2000</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="1"/>
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2016</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="1"/>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2015</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="1"/>
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2014</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2013</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="1"/>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2012</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2011</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="1"/>
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2010</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="1"/>
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2009</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="1"/>
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2008</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2007</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="1"/>
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2006</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2005</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.627</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="1"/>
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2004</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="1"/>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2003</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2002</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="1"/>
+        <v>59.099999999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2001</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D102" s="5">
+        <f t="shared" si="1"/>
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2000</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D103" s="5">
+        <f t="shared" si="1"/>
+        <v>47.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
